--- a/internal_kafka_data_produce/云端信号.xlsx
+++ b/internal_kafka_data_produce/云端信号.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="怠速不稳" sheetId="3" r:id="rId1"/>
@@ -668,6 +668,13 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -675,13 +682,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -994,36 +994,36 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2074,43 +2074,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2816,43 +2816,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3018,7 +3026,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
